--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UI programy\REFGenerateYearlyReportForVendor\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{958390D0-EC0D-46CB-A911-9210D5ED1EDC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB8E37C4-F9DE-45F2-9BE3-CE939EC77A91}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31200" yWindow="2400" windowWidth="17280" windowHeight="8970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -125,10 +125,10 @@
     <t>Credential</t>
   </si>
   <si>
-    <t>System1_Credential</t>
+    <t>OrchestratorQueueName</t>
   </si>
   <si>
-    <t>OrchestratorQueueName</t>
+    <t>&lt;Please enter here credentials&gt;</t>
   </si>
 </sst>
 </file>
@@ -516,7 +516,7 @@
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -563,7 +563,7 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>29</v>
@@ -597,7 +597,7 @@
         <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
